--- a/Example/Excel/类型定义/Test.xlsx
+++ b/Example/Excel/类型定义/Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>##ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,20 @@
   <si>
     <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>弃牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardElement</t>
   </si>
 </sst>
 </file>
@@ -423,52 +437,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>102</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
